--- a/informe/tables/parameters_lda.xlsx
+++ b/informe/tables/parameters_lda.xlsx
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>120.5585538387299</v>
+        <v>128.2578350543976</v>
       </c>
       <c r="C2" t="n">
-        <v>1.207578510874963</v>
+        <v>0.5777188677198742</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09746236801147461</v>
+        <v>0.08019700050354003</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01313438044891688</v>
+        <v>0.01177133590624032</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -692,121 +692,121 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9444444444444445</v>
+        <v>0.937037037037037</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9398148148148149</v>
+        <v>0.9361111111111112</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9481481481481482</v>
+        <v>0.938888888888889</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9398148148148149</v>
+        <v>0.938888888888889</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9453703703703704</v>
+        <v>0.9462962962962962</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9435185185185186</v>
+        <v>0.9394444444444445</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003260521641047955</v>
+        <v>0.003590873968456477</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9456267068587763</v>
+        <v>0.9372784593562585</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9402262272705167</v>
+        <v>0.9363755878690583</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9487310923707385</v>
+        <v>0.9389970584115424</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9404447380859469</v>
+        <v>0.9393498918811605</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9453887100671081</v>
+        <v>0.9466041171364957</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9440834949306172</v>
+        <v>0.939721022930903</v>
       </c>
       <c r="V2" t="n">
-        <v>0.003280375489161308</v>
+        <v>0.003611008205297801</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9446662718394067</v>
+        <v>0.9370885103260402</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9398192820522816</v>
+        <v>0.9362003662805801</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.9482629715802063</v>
+        <v>0.9389100038355592</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9398993619545992</v>
+        <v>0.9389024345303304</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9453266184480339</v>
+        <v>0.946389644936961</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9435949011749056</v>
+        <v>0.9394981919818942</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.00328176388582712</v>
+        <v>0.003602089285603239</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.937037037037037</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.9398148148148148</v>
+        <v>0.9361111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.9481481481481482</v>
+        <v>0.9388888888888889</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.9398148148148148</v>
+        <v>0.9388888888888889</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.9453703703703704</v>
+        <v>0.9462962962962963</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.9435185185185185</v>
+        <v>0.9394444444444444</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.003260521641047999</v>
+        <v>0.003590873968456546</v>
       </c>
       <c r="AM2" t="n">
         <v>1</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.9760673868312756</v>
+        <v>0.9796502057613168</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.9812744341563785</v>
+        <v>0.9812429269547325</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.9811689814814816</v>
+        <v>0.9758738425925926</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.9736638374485597</v>
+        <v>0.9803922325102882</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.9748456790123458</v>
+        <v>0.9846791409465022</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.9774040637860082</v>
+        <v>0.9803676697530864</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.003208604152721042</v>
+        <v>0.002830713672472264</v>
       </c>
       <c r="AU2" t="n">
         <v>1</v>
@@ -817,16 +817,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>65.2059654712677</v>
+        <v>68.09782271385193</v>
       </c>
       <c r="C3" t="n">
-        <v>10.8941774440436</v>
+        <v>9.999070835615326</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07399487495422363</v>
+        <v>0.0720069408416748</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04190817113372861</v>
+        <v>0.0286072903208195</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -839,121 +839,121 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.3277777777777778</v>
+        <v>0.325</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3361111111111111</v>
+        <v>0.3388888888888889</v>
       </c>
       <c r="J3" t="n">
-        <v>0.337037037037037</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3268518518518519</v>
+        <v>0.325</v>
       </c>
       <c r="L3" t="n">
         <v>0.337962962962963</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3331481481481481</v>
+        <v>0.3342592592592593</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004807687031758195</v>
+        <v>0.007878536068956525</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2169467787114846</v>
+        <v>0.2745216932273759</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4027511961722488</v>
+        <v>0.2586550932854434</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2874522900763359</v>
+        <v>0.2796934865900383</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1788887639185693</v>
+        <v>0.2946147811919624</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3494748479823107</v>
+        <v>0.4355738233397808</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2871027753721899</v>
+        <v>0.3086117755269202</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08233722241865984</v>
+        <v>0.06451255487430414</v>
       </c>
       <c r="W3" t="n">
         <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>0.191164994425864</v>
+        <v>0.1733282437154403</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1780051190949835</v>
+        <v>0.2019622655586954</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1932108070500927</v>
+        <v>0.1983941983941984</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.175903127279029</v>
+        <v>0.1783322688361379</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.209125853570298</v>
+        <v>0.201167493786799</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1894819802840534</v>
+        <v>0.1906368940582542</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.01198934556198911</v>
+        <v>0.0122501144433252</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3277777777777778</v>
+        <v>0.325</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.3361111111111111</v>
+        <v>0.3388888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.337037037037037</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.3268518518518518</v>
+        <v>0.325</v>
       </c>
       <c r="AJ3" t="n">
         <v>0.337962962962963</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.3331481481481482</v>
+        <v>0.3342592592592593</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.004807687031758216</v>
+        <v>0.007878536068956533</v>
       </c>
       <c r="AM3" t="n">
         <v>2</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.4958333333333333</v>
+        <v>0.4937500000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.5020833333333333</v>
+        <v>0.5041666666666665</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.5027777777777778</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.4951388888888889</v>
+        <v>0.49375</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.5034722222222222</v>
+        <v>0.5034722222222223</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.4998611111111111</v>
+        <v>0.5006944444444444</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.00360576527381866</v>
+        <v>0.005908902051717378</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
